--- a/medicine/Soins infirmiers et profession infirmière/Gilles_Devers/Gilles_Devers.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Gilles_Devers/Gilles_Devers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilles Devers, né en 1956, est un avocat au barreau de Lyon, blogueur, enseignant-chercheur et maître de conférences français.
 </t>
@@ -513,18 +525,58 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Universitaire
-Ancien infirmier hospitalier, il enseigne le droit à l'Université de Lyon III. En 2007, il obtient une habilitation à diriger des recherches en droit, dans la spécialité droit médical[1], et à ce titre, il a dirigé plusieurs thèses[2].
-À ce titre, les billets de son blog[3] ou ses ouvrages sont repris dans différents travaux de recherches universitaires[source insuffisante].
-Il est l'auteur d'environ 260 articles sur le droit médical publiés dans des revues spécialisées[4].
-Gilles Devers est également interrogé dans le journal de la Coordination nationale infirmière (CNI), syndicat professionnel d'infirmières sur des questions juridiques, afin d'expliquer les changements importants apparaissent dans le droit médical[5],[6].
-Avocat
-En octobre 2007, il participe sous la direction de la Haute Autorité de santé à un groupe de travail remettant un rapport sur des méthodes pour améliorer la coopération entre les professionnels de la santé[7]
-Gilles Devers a été l'un des porte-paroles d'un groupe de 350 ONG représenté par 40 avocats chargés du traitement d'une requête en justice auprès la Cour pénale internationale pour crimes de guerre lors de la guerre de Gaza de 2008-2009. Il indique aussi avoir été mandaté par l'Autorité palestinienne pour déposer plainte en son nom le 22 janvier 2009. Cette plainte fait alors l'objet d'une analyse de plusieurs juristes réunis en congrès[8].
-Dans un entretien à Euronews, deux ans après le dépôt de la plainte, il explique que les éléments du dossier sont compris dans le rapport Goldstone. Il évoque des actes de tortures systématiques, jugements inéquitables et conditions de détention inappropriées pour les prisonniers, trois violations du droit international. Il explique également que les corps des détenus décédés ne sont jamais rendus à leur famille[9].
-Il indique avoir déposé une nouvelle plainte contre Israël en juillet 2014 au nom du ministre de la justice du Gouvernement palestinien d'union nationale, Salim al-Saqa, à propos des événements intervenus lors de Guerre de Gaza de 2014[10],[11]. Après que la presse a relayé des pressions auxquelles auraient été soumises tant l'Autorité palestinienne que la Cour permanente de justice internationale[12] et que la Palestine a été autorisée a accéder au statut de Rome[13], la CPI accepte d'ouvrir un examen préliminaire pour les faits s'étant déroulés à partir du 13 juin 2014[14]. 
-Il est, selon Le Monde l'avocat français du Hamas lorsqu'interviennent les attaques du 7 octobre 2023. Il doit alors renoncer au dépôt d'une nouvelle plainte devant la Cour permanente de justice internationale financée par l'organisation, prévue pour le 9 octobre 2023[15].
-Il a ponctuellement représenté la Coordination contre le racisme et l’islamophobie[16], le Front Polisario[17] et la Grande mosquée de Lyon[18].
+          <t>Universitaire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien infirmier hospitalier, il enseigne le droit à l'Université de Lyon III. En 2007, il obtient une habilitation à diriger des recherches en droit, dans la spécialité droit médical, et à ce titre, il a dirigé plusieurs thèses.
+À ce titre, les billets de son blog ou ses ouvrages sont repris dans différents travaux de recherches universitaires[source insuffisante].
+Il est l'auteur d'environ 260 articles sur le droit médical publiés dans des revues spécialisées.
+Gilles Devers est également interrogé dans le journal de la Coordination nationale infirmière (CNI), syndicat professionnel d'infirmières sur des questions juridiques, afin d'expliquer les changements importants apparaissent dans le droit médical,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gilles_Devers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Devers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Avocat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2007, il participe sous la direction de la Haute Autorité de santé à un groupe de travail remettant un rapport sur des méthodes pour améliorer la coopération entre les professionnels de la santé
+Gilles Devers a été l'un des porte-paroles d'un groupe de 350 ONG représenté par 40 avocats chargés du traitement d'une requête en justice auprès la Cour pénale internationale pour crimes de guerre lors de la guerre de Gaza de 2008-2009. Il indique aussi avoir été mandaté par l'Autorité palestinienne pour déposer plainte en son nom le 22 janvier 2009. Cette plainte fait alors l'objet d'une analyse de plusieurs juristes réunis en congrès.
+Dans un entretien à Euronews, deux ans après le dépôt de la plainte, il explique que les éléments du dossier sont compris dans le rapport Goldstone. Il évoque des actes de tortures systématiques, jugements inéquitables et conditions de détention inappropriées pour les prisonniers, trois violations du droit international. Il explique également que les corps des détenus décédés ne sont jamais rendus à leur famille.
+Il indique avoir déposé une nouvelle plainte contre Israël en juillet 2014 au nom du ministre de la justice du Gouvernement palestinien d'union nationale, Salim al-Saqa, à propos des événements intervenus lors de Guerre de Gaza de 2014,. Après que la presse a relayé des pressions auxquelles auraient été soumises tant l'Autorité palestinienne que la Cour permanente de justice internationale et que la Palestine a été autorisée a accéder au statut de Rome, la CPI accepte d'ouvrir un examen préliminaire pour les faits s'étant déroulés à partir du 13 juin 2014. 
+Il est, selon Le Monde l'avocat français du Hamas lorsqu'interviennent les attaques du 7 octobre 2023. Il doit alors renoncer au dépôt d'une nouvelle plainte devant la Cour permanente de justice internationale financée par l'organisation, prévue pour le 9 octobre 2023.
+Il a ponctuellement représenté la Coordination contre le racisme et l’islamophobie, le Front Polisario et la Grande mosquée de Lyon.
 </t>
         </is>
       </c>
